--- a/biology/Botanique/Thysselinum_palustre/Thysselinum_palustre.xlsx
+++ b/biology/Botanique/Thysselinum_palustre/Thysselinum_palustre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thysselinum palustre, le Peucédan des marais ou Persil des marais est une plante herbacée de la famille des Apiacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Peucedanum palustre (L.) Moench
 Selinum palustre L.</t>
@@ -542,9 +556,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante .
 Elle est éteinte en Poitou-Charente. Considérée en danger-critique (CR) en Ile de France et en Haute-Normandie ; en danger (EN) en Rhône-Alpes ; comme vulnérable (VU) en Alsace, Champagne-Ardenne, Limousin et Bourgogne ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Nord-Pas-de-Calais, Picardie, Bretagne et Auvergne.
 </t>
         </is>
